--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail15 Features.xlsx
@@ -5123,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5134,29 +5134,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5177,115 +5175,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5302,72 +5290,66 @@
         <v>2.326607075919456e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.278501726485914</v>
+        <v>1.597423667947763e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.72908592934788</v>
+        <v>4.103778575745487e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.597423667947763e-06</v>
+        <v>0.1133958862248489</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.103778575745487e-06</v>
+        <v>0.3365840127202105</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1133958862248489</v>
+        <v>0.1259537260556521</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3365840127202105</v>
+        <v>1.535238889640966</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1259537260556521</v>
+        <v>1.179329045216009</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.54366919590476</v>
+        <v>21.38351924433596</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.179329045216009</v>
+        <v>4.079397163766845e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>21.38351924433596</v>
+        <v>208064769.6879627</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.079397163766845e-14</v>
+        <v>5.113914413670455e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>208064769.6879627</v>
+        <v>1766.0097205979</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.113914413670455e-07</v>
+        <v>0.000105162229918812</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1766.0097205979</v>
+        <v>8.737269411236198</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000105162229918812</v>
+        <v>1.30088925496306</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.737269411236198</v>
+        <v>0.008028071672284618</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.30088925496306</v>
+        <v>4.546108129205406</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008028071672284618</v>
+        <v>0.9274134797995238</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.546108129205406</v>
+        <v>0.9292766768199191</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9274134797995238</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9292766768199191</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.180210957421871</v>
       </c>
     </row>
@@ -5382,72 +5364,66 @@
         <v>1.750789079421729e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.776732932604538</v>
+        <v>1.230191204226549e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10.76764946609685</v>
+        <v>4.12674392055282e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.230191204226549e-06</v>
+        <v>0.1130108174546999</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.12674392055282e-06</v>
+        <v>0.3698119222946942</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1130108174546999</v>
+        <v>0.1492979180590174</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3698119222946942</v>
+        <v>1.527339861905883</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1492979180590174</v>
+        <v>1.182450079185142</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.529962606598545</v>
+        <v>21.54334443626411</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.182450079185142</v>
+        <v>4.019093439625424e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>21.54334443626411</v>
+        <v>211216921.7991463</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.019093439625424e-14</v>
+        <v>5.037626905957465e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>211216921.7991463</v>
+        <v>1793.021599737756</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.037626905957465e-07</v>
+        <v>6.865877424801423e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1793.021599737756</v>
+        <v>8.573234597593173</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.865877424801423e-05</v>
+        <v>1.293436841722329</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.573234597593173</v>
+        <v>0.005046444038410441</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.293436841722329</v>
+        <v>5.817128739233093</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005046444038410441</v>
+        <v>0.9274465226731424</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.817128739233093</v>
+        <v>0.9215480529441981</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9274465226731424</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9215480529441981</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.187433168925076</v>
       </c>
     </row>
@@ -5462,72 +5438,66 @@
         <v>1.337741831498532e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.812276354248701</v>
+        <v>9.238471481673998e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.141124099935992</v>
+        <v>4.143719449218775e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.238471481673998e-07</v>
+        <v>0.1075678789742039</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.143719449218775e-06</v>
+        <v>0.3964727101033228</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1075678789742039</v>
+        <v>0.1684667659159711</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3964727101033228</v>
+        <v>1.521823855504376</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1684667659159711</v>
+        <v>1.184373250709156</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.520997372862868</v>
+        <v>21.40594882039254</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.184373250709156</v>
+        <v>4.223371768031469e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>21.40594882039254</v>
+        <v>201011334.7138644</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.223371768031469e-14</v>
+        <v>5.293312285425758e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>201011334.7138644</v>
+        <v>1706.476873684747</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.293312285425758e-07</v>
+        <v>4.832301599796401e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1706.476873684747</v>
+        <v>9.236356773768959</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.832301599796401e-05</v>
+        <v>1.270106210736806</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.236356773768959</v>
+        <v>0.004122450337027692</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.270106210736806</v>
+        <v>6.669244807583114</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004122450337027692</v>
+        <v>0.9250244207199464</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.669244807583114</v>
+        <v>1.011948053276235</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9250244207199464</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.011948053276235</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.797879037781196</v>
       </c>
     </row>
@@ -5542,72 +5512,66 @@
         <v>1.088616149610045e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6988551712212642</v>
+        <v>6.547232391165136e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8317726908726137</v>
+        <v>4.155842372569127e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.547232391165136e-07</v>
+        <v>0.09248348212699378</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.155842372569127e-06</v>
+        <v>0.3800137765667879</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.09248348212699378</v>
+        <v>0.1526243401706575</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3800137765667879</v>
+        <v>1.523888706864427</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1526243401706575</v>
+        <v>1.216462096057354</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.52208658070458</v>
+        <v>23.43553689727832</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.216462096057354</v>
+        <v>4.810932793758866e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>23.43553689727832</v>
+        <v>183137344.2666805</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.810932793758866e-14</v>
+        <v>5.808465566575212e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>183137344.2666805</v>
+        <v>1613.552550583679</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.808465566575212e-07</v>
+        <v>5.071863489272044e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1613.552550583679</v>
+        <v>9.956316985202292</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.071863489272044e-05</v>
+        <v>1.260162689793092</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.956316985202292</v>
+        <v>0.005027649413293627</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.260162689793092</v>
+        <v>6.756196333833813</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005027649413293627</v>
+        <v>0.9219286567620127</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.756196333833813</v>
+        <v>1.004005583149447</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9219286567620127</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.004005583149447</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.077430870937295</v>
       </c>
     </row>
@@ -5622,72 +5586,66 @@
         <v>9.855297149834703e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.199994895711552</v>
+        <v>4.406003277101487e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.110935233078425</v>
+        <v>4.164150331750636e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.406003277101487e-07</v>
+        <v>0.06868032935153796</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.164150331750636e-06</v>
+        <v>0.3205453338003019</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.06868032935153796</v>
+        <v>0.1072568860866716</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3205453338003019</v>
+        <v>1.526231005910383</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1072568860866716</v>
+        <v>1.213838962618138</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.522820437870989</v>
+        <v>23.97482712858702</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.213838962618138</v>
+        <v>4.596932600846091e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>23.97482712858702</v>
+        <v>191663450.5595157</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.596932600846091e-14</v>
+        <v>5.550099442410758e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>191663450.5595157</v>
+        <v>1688.677595551915</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.550099442410758e-07</v>
+        <v>7.246033066685464e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1688.677595551915</v>
+        <v>10.29271087526467</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>7.246033066685464e-05</v>
+        <v>1.248877488781247</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.29271087526467</v>
+        <v>0.007676439979155994</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.248877488781247</v>
+        <v>6.078595863606817</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007676439979155994</v>
+        <v>0.9217243761897609</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.078595863606817</v>
+        <v>1.015903828259254</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9217243761897609</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.015903828259254</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.978491369337744</v>
       </c>
     </row>
@@ -5702,72 +5660,66 @@
         <v>9.640379008127919e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1712886483473548</v>
+        <v>3.286463894822346e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.244040058691087</v>
+        <v>4.169771534123069e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.286463894822346e-07</v>
+        <v>0.04857860306393962</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.169771534123069e-06</v>
+        <v>0.2714531925856821</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04857860306393962</v>
+        <v>0.07595826142369268</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2714531925856821</v>
+        <v>1.544223039629453</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07595826142369268</v>
+        <v>1.226228311135185</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.543210735354343</v>
+        <v>24.44350434565165</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.226228311135185</v>
+        <v>4.422340391528609e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>24.44350434565165</v>
+        <v>199219756.2208315</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.422340391528609e-14</v>
+        <v>5.339858347106205e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>199219756.2208315</v>
+        <v>1755.161064631553</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.339858347106205e-07</v>
+        <v>8.473014244731239e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1755.161064631553</v>
+        <v>9.507109126399406</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.473014244731239e-05</v>
+        <v>1.26776348423672</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.507109126399406</v>
+        <v>0.007658344426661528</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.26776348423672</v>
+        <v>5.50955579746025</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007658344426661528</v>
+        <v>0.9315366470424553</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.50955579746025</v>
+        <v>0.9934857530430183</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9315366470424553</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9934857530430183</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.816194235539902</v>
       </c>
     </row>
@@ -5782,72 +5734,66 @@
         <v>9.742457448265503e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2127319178023001</v>
+        <v>3.286463894822346e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.221026347601578</v>
+        <v>4.173790466777916e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.286463894822346e-07</v>
+        <v>0.03555189127937017</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.173790466777916e-06</v>
+        <v>0.2436147181603917</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03555189127937017</v>
+        <v>0.06057743581225098</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2436147181603917</v>
+        <v>1.550221690588194</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06057743581225098</v>
+        <v>1.236979547259361</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.549971528451358</v>
+        <v>25.43642146358323</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.236979547259361</v>
+        <v>4.083824594744058e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>25.43642146358323</v>
+        <v>215721021.2978095</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.083824594744058e-14</v>
+        <v>4.931471577823037e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>215721021.2978095</v>
+        <v>1900.430604959386</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.931471577823037e-07</v>
+        <v>5.609156584329045e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1900.430604959386</v>
+        <v>9.344395292823345</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>5.609156584329045e-05</v>
+        <v>1.227577341625051</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.344395292823345</v>
+        <v>0.004897787830734463</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.227577341625051</v>
+        <v>6.194306402902066</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004897787830734463</v>
+        <v>0.9345077297862804</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>6.194306402902066</v>
+        <v>0.960390374163325</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9345077297862804</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.960390374163325</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.779568509017807</v>
       </c>
     </row>
@@ -5862,72 +5808,66 @@
         <v>9.940262345358449e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2257248583117308</v>
+        <v>3.363485841277501e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.231064222803572</v>
+        <v>4.176852837005909e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.363485841277501e-07</v>
+        <v>0.02775132160973036</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.176852837005909e-06</v>
+        <v>0.2299151596322758</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02775132160973036</v>
+        <v>0.05362413619621009</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2299151596322758</v>
+        <v>1.555246133050374</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05362413619621009</v>
+        <v>1.228670244436841</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.556399330964845</v>
+        <v>27.06417322499706</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.228670244436841</v>
+        <v>3.607360753040549e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>27.06417322499706</v>
+        <v>244211912.0486736</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.607360753040549e-14</v>
+        <v>4.356148962491733e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>244211912.0486736</v>
+        <v>2151.410400729992</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.356148962491733e-07</v>
+        <v>3.725087359068167e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2151.410400729992</v>
+        <v>8.566915531213322</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.725087359068167e-05</v>
+        <v>1.285664505825098</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.566915531213322</v>
+        <v>0.00273391766863442</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.285664505825098</v>
+        <v>6.906640040419185</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00273391766863442</v>
+        <v>0.9367836721804552</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.906640040419185</v>
+        <v>0.9660894813186215</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9367836721804552</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9660894813186215</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>5.783968973543601</v>
       </c>
     </row>
@@ -5942,72 +5882,66 @@
         <v>1.014680763251864e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2248300687381914</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.250757670999759</v>
+        <v>4.179453411003908e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>0.02401813115807315</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.179453411003908e-06</v>
+        <v>0.2246952041546382</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02401813115807315</v>
+        <v>0.05106345567765783</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2246952041546382</v>
+        <v>1.559891008725825</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05106345567765783</v>
+        <v>1.31293002526529</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.583859514580172</v>
+        <v>23.04867461505712</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.31293002526529</v>
+        <v>4.97378709537881e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>23.04867461505712</v>
+        <v>245714385.453018</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.97378709537881e-14</v>
+        <v>4.328548819217011e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>245714385.453018</v>
+        <v>3002.951773175244</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.328548819217011e-07</v>
+        <v>3.921948854117762e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3002.951773175244</v>
+        <v>8.269846237758548</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.921948854117762e-05</v>
+        <v>1.510564946909251</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.269846237758548</v>
+        <v>0.002682234814694407</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.510564946909251</v>
+        <v>6.992333657726423</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002682234814694407</v>
+        <v>0.9239195210070641</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>6.992333657726423</v>
+        <v>0.9345515025527149</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9239195210070641</v>
+        <v>20</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9345515025527149</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>5.750634509498966</v>
       </c>
     </row>
@@ -6022,72 +5956,66 @@
         <v>1.031187603430971e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2329602522012835</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.279294336270893</v>
+        <v>4.181657991723524e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>0.01841959221165715</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.181657991723524e-06</v>
+        <v>0.2233145446819854</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01841959221165715</v>
+        <v>0.05020094893762751</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2233145446819854</v>
+        <v>1.559855086008207</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05020094893762751</v>
+        <v>1.308837982191401</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.583269421267453</v>
+        <v>22.47451443717928</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.308837982191401</v>
+        <v>5.231165617083667e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>22.47451443717928</v>
+        <v>233631800.8788942</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.231165617083667e-14</v>
+        <v>4.552424881758339e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>233631800.8788942</v>
+        <v>2855.369939686146</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.552424881758339e-07</v>
+        <v>4.736636980821891e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2855.369939686146</v>
+        <v>9.371157564361216</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>4.736636980821891e-05</v>
+        <v>1.34013152041374</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.371157564361216</v>
+        <v>0.004159648003993005</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.34013152041374</v>
+        <v>6.668591259976759</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.004159648003993005</v>
+        <v>0.9236812741658973</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>6.668591259976759</v>
+        <v>0.8989472139088662</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9236812741658973</v>
+        <v>19</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8989472139088662</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>5.277184170440579</v>
       </c>
     </row>
@@ -6102,72 +6030,66 @@
         <v>1.04044079976388e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2483242388042292</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.305143388078529</v>
+        <v>4.183100099587961e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>0.008816010652313529</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.183100099587961e-06</v>
+        <v>0.2244375821722671</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.008816010652313529</v>
+        <v>0.05043689476085532</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2244375821722671</v>
+        <v>1.552505529662214</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05043689476085532</v>
+        <v>1.308207731771504</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.57264277359265</v>
+        <v>22.70663075845469</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.308207731771504</v>
+        <v>5.124762098892894e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>22.70663075845469</v>
+        <v>238491079.441525</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.124762098892894e-14</v>
+        <v>4.459618693970572e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>238491079.441525</v>
+        <v>2914.861928995929</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.459618693970572e-07</v>
+        <v>5.297281507901692e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2914.861928995929</v>
+        <v>10.3655072404075</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.297281507901692e-05</v>
+        <v>1.145971871441423</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.3655072404075</v>
+        <v>0.005691597389008273</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.145971871441423</v>
+        <v>6.295167071449736</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005691597389008273</v>
+        <v>0.9229400053928837</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>6.295167071449736</v>
+        <v>0.9250754365999407</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9229400053928837</v>
+        <v>20</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9250754365999407</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.039238770409899</v>
       </c>
     </row>
@@ -6182,72 +6104,66 @@
         <v>1.043090760049298e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2543762570599444</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.314085259884169</v>
+        <v>4.183540854524543e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>0.0003841329652208184</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.183540854524543e-06</v>
+        <v>0.2238413597035321</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.0003841329652208184</v>
+        <v>0.05010055400557632</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2238413597035321</v>
+        <v>1.552278661630512</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05010055400557632</v>
+        <v>1.310747851373149</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.56983935107449</v>
+        <v>22.30875965153988</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.310747851373149</v>
+        <v>5.309189855527392e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>22.30875965153988</v>
+        <v>230216745.1749204</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.309189855527392e-14</v>
+        <v>4.619957417550954e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>230216745.1749204</v>
+        <v>2813.857337656239</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.619957417550954e-07</v>
+        <v>4.355432030214729e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2813.857337656239</v>
+        <v>8.794933736981291</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>4.355432030214729e-05</v>
+        <v>1.215638592179779</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.794933736981291</v>
+        <v>0.003368964107604307</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.215638592179779</v>
+        <v>6.722958852236659</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003368964107604307</v>
+        <v>0.9246890089710819</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>6.722958852236659</v>
+        <v>0.949914527966139</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9246890089710819</v>
+        <v>20</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.949914527966139</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>5.652547757674313</v>
       </c>
     </row>
@@ -6262,72 +6178,66 @@
         <v>1.042043770858471e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2525060411875389</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.31059623883824</v>
+        <v>4.183379594234631e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>-0.002331768635752095</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.183379594234631e-06</v>
+        <v>0.2232770439432356</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.002331768635752095</v>
+        <v>0.04985706751846038</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2232770439432356</v>
+        <v>1.561053912368584</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04985706751846038</v>
+        <v>1.344637576998886</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.57757505311613</v>
+        <v>21.15657375402561</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.344637576998886</v>
+        <v>5.903212709203848e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>21.15657375402561</v>
+        <v>210852618.4915473</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.903212709203848e-14</v>
+        <v>5.044092594183175e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>210852618.4915473</v>
+        <v>2624.499109577886</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.044092594183175e-07</v>
+        <v>3.682409250723877e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2624.499109577886</v>
+        <v>7.547149135071761</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.682409250723877e-05</v>
+        <v>1.576960515320462</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.547149135071761</v>
+        <v>0.002097480426670112</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.576960515320462</v>
+        <v>7.12132625396938</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.002097480426670112</v>
+        <v>0.9321618342979904</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>7.12132625396938</v>
+        <v>0.8911992106021978</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9321618342979904</v>
+        <v>22</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.8911992106021978</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>6.1382570730862</v>
       </c>
     </row>
@@ -6342,72 +6252,66 @@
         <v>1.040229792102249e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2503477051905941</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.304890010580042</v>
+        <v>4.183127161972332e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>-0.002574989710009172</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.183127161972332e-06</v>
+        <v>0.2236155881430663</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.002574989710009172</v>
+        <v>0.05001037089538511</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2236155881430663</v>
+        <v>1.559993265438152</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05001037089538511</v>
+        <v>1.264693495808773</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.554162846050422</v>
+        <v>24.19279369681561</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.264693495808773</v>
+        <v>4.454251841870926e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>24.19279369681561</v>
+        <v>204506842.9489407</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.454251841870926e-14</v>
+        <v>5.198241535603411e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>204506842.9489407</v>
+        <v>1862.903922077077</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.198241535603411e-07</v>
+        <v>3.021782291832186e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1862.903922077077</v>
+        <v>7.707817904941631</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>3.021782291832186e-05</v>
+        <v>1.416770694802073</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.707817904941631</v>
+        <v>0.001795254664763316</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.416770694802073</v>
+        <v>7.284381141274864</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.001795254664763316</v>
+        <v>0.9377731010118691</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>7.284381141274864</v>
+        <v>0.9899305131906323</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9377731010118691</v>
+        <v>20</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9899305131906323</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>6.394571160993157</v>
       </c>
     </row>
@@ -6422,72 +6326,66 @@
         <v>1.037747625662015e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2482738703265341</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.297445964346261</v>
+        <v>4.18280210187208e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>-0.003947301987421002</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.18280210187208e-06</v>
+        <v>0.223904789861913</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.003947301987421002</v>
+        <v>0.05014820025353518</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.223904789861913</v>
+        <v>1.561591181386865</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05014820025353518</v>
+        <v>1.268192926613883</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.556106168411166</v>
+        <v>24.89467650931973</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.268192926613883</v>
+        <v>4.206625380199673e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>24.89467650931973</v>
+        <v>216537268.7590987</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.206625380199673e-14</v>
+        <v>4.909441094008443e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>216537268.7590987</v>
+        <v>1972.418862014266</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.909441094008443e-07</v>
+        <v>3.745566266123879e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1972.418862014266</v>
+        <v>8.688126929888604</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.745566266123879e-05</v>
+        <v>1.230284637638296</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.688126929888604</v>
+        <v>0.002827286368412293</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.230284637638296</v>
+        <v>6.817424279963215</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.002827286368412293</v>
+        <v>0.9374177886828065</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>6.817424279963215</v>
+        <v>1.007382477640959</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9374177886828065</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.007382477640959</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>5.577928205834707</v>
       </c>
     </row>
@@ -6502,72 +6400,66 @@
         <v>1.033918076865293e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2460154324300829</v>
+        <v>3.380717641266652e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.28644010757056</v>
+        <v>4.182321356994089e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.380717641266652e-07</v>
+        <v>-0.004614599447591983</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.182321356994089e-06</v>
+        <v>0.2245232043831507</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.004614599447591983</v>
+        <v>0.05043147509677404</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2245232043831507</v>
+        <v>1.560143368440692</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05043147509677404</v>
+        <v>1.260388788184281</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.555803344339643</v>
+        <v>26.00265169716122</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.260388788184281</v>
+        <v>3.855773684054137e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>26.00265169716122</v>
+        <v>236227390.3948389</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.855773684054137e-14</v>
+        <v>4.500192816761788e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>236227390.3948389</v>
+        <v>2151.652039802248</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.500192816761788e-07</v>
+        <v>4.299496982644229e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2151.652039802248</v>
+        <v>9.092265652946637</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>4.299496982644229e-05</v>
+        <v>1.161372727054731</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.092265652946637</v>
+        <v>0.003554363831361132</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.161372727054731</v>
+        <v>6.475795988476202</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.003554363831361132</v>
+        <v>0.9359754408135578</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>6.475795988476202</v>
+        <v>0.9720032144188577</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9359754408135578</v>
+        <v>23</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9720032144188577</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>5.097110326113106</v>
       </c>
     </row>
@@ -6944,7 +6836,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.325212249376219</v>
+        <v>1.303521694191142</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.148428723004603</v>
@@ -7033,7 +6925,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.327574763362816</v>
+        <v>1.307433741583753</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.206025310390143</v>
@@ -7122,7 +7014,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.336505613114354</v>
+        <v>1.316067859689306</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.980582390331805</v>
@@ -7211,7 +7103,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.356921702309343</v>
+        <v>1.338365031472098</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.163914000065075</v>
@@ -7300,7 +7192,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.402055887260222</v>
+        <v>1.378909581854062</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.112708084515082</v>
@@ -7389,7 +7281,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.435489985299982</v>
+        <v>1.413208580688379</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.011032486466344</v>
@@ -7478,7 +7370,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.43758297217204</v>
+        <v>1.414370189303863</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.610529758211934</v>
@@ -7567,7 +7459,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.436836357966263</v>
+        <v>1.412420773862767</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.796867474207914</v>
@@ -7656,7 +7548,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.447778259631591</v>
+        <v>1.424046516857737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.850830665760386</v>
@@ -7745,7 +7637,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.446831662803785</v>
+        <v>1.424355835902304</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.807630757219251</v>
@@ -7834,7 +7726,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.435481722060901</v>
+        <v>1.41932926060342</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.858174433278604</v>
@@ -7923,7 +7815,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.431751801106278</v>
+        <v>1.414060465823104</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.765267841011166</v>
@@ -8012,7 +7904,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.426530594669068</v>
+        <v>1.407034680895757</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.600448268865221</v>
@@ -8101,7 +7993,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.421829345277975</v>
+        <v>1.394936981184652</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.49876552349797</v>
@@ -8190,7 +8082,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.409917007814127</v>
+        <v>1.38690718267814</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.422575963156115</v>
@@ -8279,7 +8171,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.404467037315839</v>
+        <v>1.389387852565927</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.693167343665458</v>
@@ -8368,7 +8260,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.400220664506904</v>
+        <v>1.382642872568803</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.45070768179799</v>
@@ -8457,7 +8349,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.380285456625167</v>
+        <v>1.36795125511804</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.522669230725942</v>
@@ -8546,7 +8438,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.383006064691304</v>
+        <v>1.372276679332566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.450747065951699</v>
@@ -8635,7 +8527,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.368656108752273</v>
+        <v>1.357523757684276</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.558780562789251</v>
@@ -8724,7 +8616,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.349008583145348</v>
+        <v>1.337384917347193</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.459955272042287</v>
@@ -8813,7 +8705,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.340141067643914</v>
+        <v>1.326233455555127</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.319070904388059</v>
@@ -8902,7 +8794,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.329799455569355</v>
+        <v>1.320762691496176</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.266204124653635</v>
@@ -8991,7 +8883,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.324816066024469</v>
+        <v>1.314251446591686</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342389302265691</v>
@@ -9080,7 +8972,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.331937435517639</v>
+        <v>1.318086509658566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.304532456680963</v>
@@ -9169,7 +9061,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.332803699901052</v>
+        <v>1.319953008286094</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.239436458342432</v>
@@ -9258,7 +9150,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.318971854073246</v>
+        <v>1.307760152220689</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.317829154854973</v>
@@ -9347,7 +9239,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.313510955968592</v>
+        <v>1.299807263174505</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.318545820901996</v>
@@ -9436,7 +9328,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.31799367211566</v>
+        <v>1.309247903487747</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.132848356274141</v>
@@ -9525,7 +9417,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.326546265363687</v>
+        <v>1.317665446126416</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.155343521564974</v>
@@ -9614,7 +9506,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.332061536767492</v>
+        <v>1.320924851148849</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.321822904418346</v>
@@ -9703,7 +9595,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.343557025212541</v>
+        <v>1.324065445486583</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.265702064444752</v>
@@ -9792,7 +9684,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.357529774183189</v>
+        <v>1.331883962115748</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.317165036862312</v>
@@ -9881,7 +9773,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.351771238202035</v>
+        <v>1.324897249913404</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.145653047270454</v>
@@ -9970,7 +9862,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.342914993348642</v>
+        <v>1.315665875802914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.250297867890481</v>
@@ -10059,7 +9951,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.353754071017361</v>
+        <v>1.32650818597266</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.278470384276472</v>
@@ -10148,7 +10040,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.376885496945358</v>
+        <v>1.344052344902131</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.319201627810285</v>
@@ -10237,7 +10129,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.362718024709896</v>
+        <v>1.330453556021183</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.398552928986961</v>
@@ -10326,7 +10218,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.363647081987164</v>
+        <v>1.330495870459697</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.304507753990339</v>
@@ -10415,7 +10307,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.356964891550134</v>
+        <v>1.329543401647356</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.515309614282137</v>
@@ -10504,7 +10396,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.352905803879442</v>
+        <v>1.322215982375244</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.443031331647613</v>
@@ -10593,7 +10485,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.351137746221886</v>
+        <v>1.322086614326386</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.438744857039603</v>
@@ -10682,7 +10574,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.365111746933287</v>
+        <v>1.336490756189388</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.334058723750034</v>
@@ -10771,7 +10663,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.357379164978969</v>
+        <v>1.326225434214063</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557001045018381</v>
@@ -10860,7 +10752,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.359736764264727</v>
+        <v>1.328630021602853</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.701308695332558</v>
@@ -10949,7 +10841,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.359862728031863</v>
+        <v>1.328745867533862</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.678425680608557</v>
@@ -11038,7 +10930,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.345667852054948</v>
+        <v>1.322858383302426</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.377734320189666</v>
@@ -11127,7 +11019,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.353801975249149</v>
+        <v>1.334257176182196</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.370126306482208</v>
@@ -11216,7 +11108,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.370448809187191</v>
+        <v>1.35100429776166</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.383393118042517</v>
@@ -11305,7 +11197,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.384900061382078</v>
+        <v>1.365986953080997</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.626494959753451</v>
@@ -11394,7 +11286,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.389813170008874</v>
+        <v>1.369572243168452</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.616760274019958</v>
@@ -11483,7 +11375,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.379299144097906</v>
+        <v>1.361744617224659</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.497636635688046</v>
@@ -11572,7 +11464,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.380795031773131</v>
+        <v>1.362694399257263</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.671492820119288</v>
@@ -11661,7 +11553,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.38701878237988</v>
+        <v>1.367384108535824</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.835528737810823</v>
@@ -11750,7 +11642,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.38991348064089</v>
+        <v>1.368045883289457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.796436657868409</v>
@@ -11839,7 +11731,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.382773814458078</v>
+        <v>1.362511958296229</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.53425849073187</v>
@@ -11928,7 +11820,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.383993369116193</v>
+        <v>1.366147318862458</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.366947801049087</v>
@@ -12017,7 +11909,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.385480030348565</v>
+        <v>1.36500196484211</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.394827789032595</v>
@@ -12106,7 +11998,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.397274701518934</v>
+        <v>1.375232153034777</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.601940568970914</v>
@@ -12195,7 +12087,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.38388991362022</v>
+        <v>1.366852228262176</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.372607765969426</v>
@@ -12284,7 +12176,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.368940156392761</v>
+        <v>1.356949063614361</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.4163071648274</v>
@@ -12570,7 +12462,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601319716915963</v>
+        <v>1.586012995737453</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.9503190926146</v>
@@ -12659,7 +12551,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596213589632622</v>
+        <v>1.584091408887787</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.911971200299553</v>
@@ -12748,7 +12640,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586992064720756</v>
+        <v>1.574490983632821</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.686417344162879</v>
@@ -12837,7 +12729,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.559853149158002</v>
+        <v>1.551539943335413</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.541069249545241</v>
@@ -12926,7 +12818,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573412068287836</v>
+        <v>1.560400376467522</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.528609849103642</v>
@@ -13015,7 +12907,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579577275946863</v>
+        <v>1.565927334676977</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.369576431028126</v>
@@ -13104,7 +12996,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584894916801029</v>
+        <v>1.571355406821086</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.521932740379194</v>
@@ -13193,7 +13085,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.588563311890819</v>
+        <v>1.579070236761797</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.359840239310087</v>
@@ -13282,7 +13174,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597452742072589</v>
+        <v>1.586304199385505</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.394842284463115</v>
@@ -13371,7 +13263,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.598344325895544</v>
+        <v>1.592051444059632</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.447715735541066</v>
@@ -13460,7 +13352,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600366186642583</v>
+        <v>1.594957340068502</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.454137003452178</v>
@@ -13549,7 +13441,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599652243999575</v>
+        <v>1.594495203530779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.519564705201534</v>
@@ -13638,7 +13530,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591881855070503</v>
+        <v>1.586097118505299</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.409107700843514</v>
@@ -13727,7 +13619,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.590730301594578</v>
+        <v>1.588030945685432</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.435112080143734</v>
@@ -13816,7 +13708,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.591299435756323</v>
+        <v>1.587242228053781</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.491907093680215</v>
@@ -13905,7 +13797,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584584293798744</v>
+        <v>1.581528984245347</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.427881376563436</v>
@@ -13994,7 +13886,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584241224105664</v>
+        <v>1.578715770371703</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.372756686355437</v>
@@ -14083,7 +13975,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.594148597753403</v>
+        <v>1.581503094831822</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.566232610065495</v>
@@ -14172,7 +14064,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611609426979063</v>
+        <v>1.591952487026225</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.496804023126543</v>
@@ -14261,7 +14153,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613600725519638</v>
+        <v>1.591992767763464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.333696272265827</v>
@@ -14350,7 +14242,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601440873147463</v>
+        <v>1.578037552310892</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.231030329777149</v>
@@ -14439,7 +14331,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.596246448405679</v>
+        <v>1.573330222600939</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.742603429068062</v>
@@ -14528,7 +14420,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.590705752683561</v>
+        <v>1.568102686153648</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.580356158807874</v>
@@ -14617,7 +14509,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596950031532698</v>
+        <v>1.577778360128272</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.767543895369593</v>
@@ -14706,7 +14598,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596993244287658</v>
+        <v>1.572744420117992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.665720900254851</v>
@@ -14795,7 +14687,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593050951844656</v>
+        <v>1.571888935199672</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.831078647172255</v>
@@ -14884,7 +14776,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603192548251932</v>
+        <v>1.583108666437981</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.776567325152378</v>
@@ -14973,7 +14865,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.603733516659732</v>
+        <v>1.584678360668146</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.6897649875331</v>
@@ -15062,7 +14954,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592258615109875</v>
+        <v>1.57422760259115</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.666811985140136</v>
@@ -15151,7 +15043,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.593287117619842</v>
+        <v>1.574022473142898</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.760067771556341</v>
@@ -15240,7 +15132,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595936886324555</v>
+        <v>1.574231310865595</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.697066784155088</v>
@@ -15329,7 +15221,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599934090749343</v>
+        <v>1.580531396119886</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.822373303675059</v>
@@ -15418,7 +15310,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602795516834357</v>
+        <v>1.57989689655278</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.713398010108608</v>
@@ -15507,7 +15399,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602885148427796</v>
+        <v>1.579235905418276</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.647362266323494</v>
@@ -15596,7 +15488,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593777704486463</v>
+        <v>1.573293965727953</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.652274894935591</v>
@@ -15685,7 +15577,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.60273532082334</v>
+        <v>1.583230124062104</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.678815722142179</v>
@@ -15774,7 +15666,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60280390970002</v>
+        <v>1.580406919312966</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.348301470036303</v>
@@ -15863,7 +15755,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59536722671414</v>
+        <v>1.570041012638969</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.513266547233456</v>
@@ -15952,7 +15844,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576761572434909</v>
+        <v>1.552871703687628</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.878411798713872</v>
@@ -16041,7 +15933,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581413680221184</v>
+        <v>1.557909329219488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.968182727851862</v>
@@ -16130,7 +16022,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.571691859446793</v>
+        <v>1.546239411283971</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.195746886649636</v>
@@ -16219,7 +16111,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576431589023611</v>
+        <v>1.554577567998098</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.087113403239537</v>
@@ -16308,7 +16200,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.585560461211861</v>
+        <v>1.562044637217303</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.021732532961289</v>
@@ -16397,7 +16289,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572537870404068</v>
+        <v>1.554469704907042</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.70018929421151</v>
@@ -16486,7 +16378,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569640384500445</v>
+        <v>1.552936182632061</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.768840375735821</v>
@@ -16575,7 +16467,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574927633338536</v>
+        <v>1.566125157603971</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.773468578609195</v>
@@ -16664,7 +16556,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.576602544408119</v>
+        <v>1.568759378457663</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.816747616376005</v>
@@ -16753,7 +16645,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577010984546174</v>
+        <v>1.572835534317964</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.761370858196629</v>
@@ -16842,7 +16734,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585160654941876</v>
+        <v>1.576847006005244</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.654883627568515</v>
@@ -16931,7 +16823,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597685100576021</v>
+        <v>1.588182322299907</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.842442266231442</v>
@@ -17020,7 +16912,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602447536966054</v>
+        <v>1.59258889406885</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.882610865797751</v>
@@ -17109,7 +17001,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609782639766551</v>
+        <v>1.603688182196721</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.811292465101165</v>
@@ -17198,7 +17090,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.604811046306361</v>
+        <v>1.602332059628987</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.650300494266023</v>
@@ -17287,7 +17179,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.574590279128037</v>
+        <v>1.567207609484064</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.31656974022554</v>
@@ -17376,7 +17268,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.571779061667951</v>
+        <v>1.568103281599293</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.375774423793108</v>
@@ -17465,7 +17357,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570646711734493</v>
+        <v>1.573269370148713</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.38578895736458</v>
@@ -17554,7 +17446,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.557615999564914</v>
+        <v>1.561852698667158</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.315707038726183</v>
@@ -17643,7 +17535,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.559020167418249</v>
+        <v>1.564114968346513</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.372327752245338</v>
@@ -17732,7 +17624,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.576142503040181</v>
+        <v>1.574677103898998</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.233189434777457</v>
@@ -17821,7 +17713,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.577510901102755</v>
+        <v>1.576646374688044</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.450783535999947</v>
@@ -17910,7 +17802,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.571372142832544</v>
+        <v>1.565428531967494</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.29834688202076</v>
@@ -18196,7 +18088,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599137808733011</v>
+        <v>1.543444426521792</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.430550350130429</v>
@@ -18285,7 +18177,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5930550993142</v>
+        <v>1.53575706735441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.219752690820785</v>
@@ -18374,7 +18266,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.587802890594995</v>
+        <v>1.533531684369074</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.03257861913152</v>
@@ -18463,7 +18355,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.61088483548683</v>
+        <v>1.559741298859994</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.968806112628672</v>
@@ -18552,7 +18444,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61727733975333</v>
+        <v>1.560615922632602</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.096064276635506</v>
@@ -18641,7 +18533,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626557928000531</v>
+        <v>1.557924120777398</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.274047632040794</v>
@@ -18730,7 +18622,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.624239701906845</v>
+        <v>1.556052829288513</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.229784857086717</v>
@@ -18819,7 +18711,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617192257351667</v>
+        <v>1.552129211482959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.223839934048953</v>
@@ -18908,7 +18800,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610889271152078</v>
+        <v>1.543624537455454</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.943394792078413</v>
@@ -18997,7 +18889,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618568980685449</v>
+        <v>1.56235017723593</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.974184244466584</v>
@@ -19086,7 +18978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609071517576755</v>
+        <v>1.555841346117894</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.141443980243184</v>
@@ -19175,7 +19067,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607946028730787</v>
+        <v>1.549023375985762</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.285779657926158</v>
@@ -19264,7 +19156,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60097172063841</v>
+        <v>1.5460828731628</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.020758645698856</v>
@@ -19353,7 +19245,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.6023284536531</v>
+        <v>1.55369829258158</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.685276014094132</v>
@@ -19442,7 +19334,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60574119271506</v>
+        <v>1.555411528630019</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.98335761498383</v>
@@ -19531,7 +19423,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605864573018113</v>
+        <v>1.552004854400036</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.086334987450234</v>
@@ -19620,7 +19512,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.61288912556024</v>
+        <v>1.554590873733403</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.111494041890229</v>
@@ -19709,7 +19601,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613796581168339</v>
+        <v>1.551636405291088</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.909029195506522</v>
@@ -19798,7 +19690,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.603385657335116</v>
+        <v>1.530560649196761</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.880784285516449</v>
@@ -19887,7 +19779,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596724391648999</v>
+        <v>1.520819244819912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.014948817034843</v>
@@ -19976,7 +19868,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593893896633518</v>
+        <v>1.528877525688176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.184504638835454</v>
@@ -20065,7 +19957,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567939848221649</v>
+        <v>1.510492222558949</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.253450275942767</v>
@@ -20154,7 +20046,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.537455222802961</v>
+        <v>1.497121597687798</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.254602245546273</v>
@@ -20243,7 +20135,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.534208974978604</v>
+        <v>1.491743515232336</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.242719630233291</v>
@@ -20332,7 +20224,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536473982244225</v>
+        <v>1.486530116885859</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.230314483001908</v>
@@ -20421,7 +20313,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.543693553623146</v>
+        <v>1.490193833730945</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.242058544854056</v>
@@ -20510,7 +20402,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544990783512407</v>
+        <v>1.491981750481797</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.277124664725375</v>
@@ -20599,7 +20491,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.551205025827369</v>
+        <v>1.49604462767335</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.252498776513309</v>
@@ -20688,7 +20580,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.549065768224612</v>
+        <v>1.489692137785601</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.24757606323028</v>
@@ -20777,7 +20669,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560625913724736</v>
+        <v>1.500061509397355</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.24455884409685</v>
@@ -20866,7 +20758,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557337885709377</v>
+        <v>1.496558668136124</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.260453275592733</v>
@@ -20955,7 +20847,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.554468422082513</v>
+        <v>1.492189611298195</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.270730824732377</v>
@@ -21044,7 +20936,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558532669712229</v>
+        <v>1.497830600767301</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.273957586020882</v>
@@ -21133,7 +21025,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550131944923822</v>
+        <v>1.483333560020236</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.290987414370391</v>
@@ -21222,7 +21114,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.555435869616682</v>
+        <v>1.4854724176088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.232364286513827</v>
@@ -21311,7 +21203,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.560926097295669</v>
+        <v>1.485033397582471</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.243916505952436</v>
@@ -21400,7 +21292,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595037079698649</v>
+        <v>1.494568514168689</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.472386831886904</v>
@@ -21489,7 +21381,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.604019569739841</v>
+        <v>1.494288937839267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.427808430527945</v>
@@ -21578,7 +21470,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.600939693438237</v>
+        <v>1.490035912982248</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.195142060836277</v>
@@ -21667,7 +21559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598399801620133</v>
+        <v>1.493512347751357</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.439760549610545</v>
@@ -21756,7 +21648,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598087083252135</v>
+        <v>1.489209784721338</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.111349716188553</v>
@@ -21845,7 +21737,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.599908972276393</v>
+        <v>1.49800876687059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.152817849432899</v>
@@ -21934,7 +21826,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.600652304823162</v>
+        <v>1.494211675552439</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.105381239552234</v>
@@ -22023,7 +21915,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612797797321068</v>
+        <v>1.511274832231212</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.16589309810607</v>
@@ -22112,7 +22004,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.608166724516839</v>
+        <v>1.513366134965064</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.861723612021532</v>
@@ -22201,7 +22093,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610646619398953</v>
+        <v>1.518111459084064</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.242006833770947</v>
@@ -22290,7 +22182,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602881779528056</v>
+        <v>1.514075590774281</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.172197987881923</v>
@@ -22379,7 +22271,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599881559439957</v>
+        <v>1.514143909783206</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.768220130702072</v>
@@ -22468,7 +22360,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.613938576644303</v>
+        <v>1.536358290849745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.136786804213599</v>
@@ -22557,7 +22449,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623604590209438</v>
+        <v>1.545266443026098</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.976867791443027</v>
@@ -22646,7 +22538,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615464147246956</v>
+        <v>1.54117714994557</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.189536001199651</v>
@@ -22735,7 +22627,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.625276067317844</v>
+        <v>1.557283434379648</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.024609650998625</v>
@@ -22824,7 +22716,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629991278564371</v>
+        <v>1.569332886601175</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.258321182758522</v>
@@ -22913,7 +22805,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.619857980219326</v>
+        <v>1.567273877541686</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.244066779009452</v>
@@ -23002,7 +22894,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.604733317246729</v>
+        <v>1.551006265092839</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.230725012345745</v>
@@ -23091,7 +22983,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599089575780625</v>
+        <v>1.549137398651134</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.140747299368963</v>
@@ -23180,7 +23072,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603258256691844</v>
+        <v>1.551753309232211</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.172905869273643</v>
@@ -23269,7 +23161,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602540274495868</v>
+        <v>1.549813984018688</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.153306837834379</v>
@@ -23358,7 +23250,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594969588853759</v>
+        <v>1.540559714565961</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.759343149144617</v>
@@ -23447,7 +23339,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.604204901257764</v>
+        <v>1.541267722486536</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.96655347415755</v>
@@ -23536,7 +23428,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.600749339112369</v>
+        <v>1.543055977150566</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.115325136436705</v>
@@ -23822,7 +23714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534112634006284</v>
+        <v>1.48379347775307</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.078213243466246</v>
@@ -23911,7 +23803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.532646996489906</v>
+        <v>1.487256027130769</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.808924066923981</v>
@@ -24000,7 +23892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.527112103528193</v>
+        <v>1.48512652867178</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.648579410283435</v>
@@ -24089,7 +23981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.569468355187702</v>
+        <v>1.520399725127143</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.197188371956352</v>
@@ -24178,7 +24070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.572147795406074</v>
+        <v>1.524594386385139</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.779032967273915</v>
@@ -24267,7 +24159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584463662604215</v>
+        <v>1.534966273309371</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.016493546442789</v>
@@ -24356,7 +24248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578304765125845</v>
+        <v>1.530135582966848</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.982228994756352</v>
@@ -24445,7 +24337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.578949019164389</v>
+        <v>1.530413479003902</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.167121765926415</v>
@@ -24534,7 +24426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.56979441745957</v>
+        <v>1.521134446277933</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.972054347849197</v>
@@ -24623,7 +24515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.574852258918686</v>
+        <v>1.533641002405636</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.724857545681235</v>
@@ -24712,7 +24604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.571987648647806</v>
+        <v>1.528095360775364</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.109898299628775</v>
@@ -24801,7 +24693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566847501595561</v>
+        <v>1.529708548554452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.17434042057511</v>
@@ -24890,7 +24782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569107489738363</v>
+        <v>1.528379695756723</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.937111101775746</v>
@@ -24979,7 +24871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.572236071487623</v>
+        <v>1.527200407933441</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.932419734415436</v>
@@ -25068,7 +24960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.563397884790291</v>
+        <v>1.518447309980909</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.047725186669564</v>
@@ -25157,7 +25049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.575706633869737</v>
+        <v>1.523225862135463</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.174699095608398</v>
@@ -25246,7 +25138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584146492215582</v>
+        <v>1.529245814417385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.010832974677662</v>
@@ -25335,7 +25227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597727971062222</v>
+        <v>1.540187837116406</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.859348585227665</v>
@@ -25424,7 +25316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590156941725484</v>
+        <v>1.530968991624245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.029024534004902</v>
@@ -25513,7 +25405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.587920204398603</v>
+        <v>1.525644547940393</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.796257957988943</v>
@@ -25602,7 +25494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575005015233575</v>
+        <v>1.509418628254719</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.916556951348751</v>
@@ -25691,7 +25583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575556001974258</v>
+        <v>1.518846654356124</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.02592488238801</v>
@@ -25780,7 +25672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580539439290391</v>
+        <v>1.527082935040485</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.005371816598656</v>
@@ -25869,7 +25761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581440293763187</v>
+        <v>1.528818492561811</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.962073245202516</v>
@@ -25958,7 +25850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587979185490695</v>
+        <v>1.522873099249187</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.297236187326127</v>
@@ -26047,7 +25939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587351803803819</v>
+        <v>1.521048645308044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.975676702626783</v>
@@ -26136,7 +26028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577785822172528</v>
+        <v>1.512009517485859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.139638779725377</v>
@@ -26225,7 +26117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565487826827159</v>
+        <v>1.505001344703864</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.188367360316723</v>
@@ -26314,7 +26206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561653232678827</v>
+        <v>1.500170104714928</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.80467868708276</v>
@@ -26403,7 +26295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.575988099332929</v>
+        <v>1.509896405449882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.383364535187613</v>
@@ -26492,7 +26384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573771716731727</v>
+        <v>1.508278752888033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.154891466346418</v>
@@ -26581,7 +26473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577806825797708</v>
+        <v>1.508816022227941</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.84778322027336</v>
@@ -26670,7 +26562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.579899485329869</v>
+        <v>1.500771582262796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.322792200563739</v>
@@ -26759,7 +26651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555318705103165</v>
+        <v>1.476606254078965</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.034549681625279</v>
@@ -26848,7 +26740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.553981755246991</v>
+        <v>1.47345719560469</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.868010495334867</v>
@@ -26937,7 +26829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564969157404498</v>
+        <v>1.485683896069522</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.917721328272254</v>
@@ -27026,7 +26918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.568428776842657</v>
+        <v>1.477544720914189</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.934935318511781</v>
@@ -27115,7 +27007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550566776373753</v>
+        <v>1.460666697637311</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.94295757370667</v>
@@ -27204,7 +27096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557509489090439</v>
+        <v>1.459591863203408</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.54949147717254</v>
@@ -27293,7 +27185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549663328486138</v>
+        <v>1.460199558459851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.988265716356716</v>
@@ -27382,7 +27274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.555404154858906</v>
+        <v>1.465209584500449</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.038653524723022</v>
@@ -27471,7 +27363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562581968030093</v>
+        <v>1.468442765257415</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.008890726358299</v>
@@ -27560,7 +27452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576203617632296</v>
+        <v>1.472669353247579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.008572640129855</v>
@@ -27649,7 +27541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586256307961355</v>
+        <v>1.486352439205227</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.046043490178993</v>
@@ -27738,7 +27630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586333889510798</v>
+        <v>1.493059276600551</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.967638248404208</v>
@@ -27827,7 +27719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.588426088889648</v>
+        <v>1.498253256271184</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.015110199376696</v>
@@ -27916,7 +27808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584597062298697</v>
+        <v>1.497070436943845</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.8939299276172</v>
@@ -28005,7 +27897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59066136985378</v>
+        <v>1.507739129085718</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.691929126047631</v>
@@ -28094,7 +27986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622028689160578</v>
+        <v>1.541952904244992</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.268242540188819</v>
@@ -28183,7 +28075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618901163995816</v>
+        <v>1.542457442791706</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.121670286516389</v>
@@ -28272,7 +28164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615943236854963</v>
+        <v>1.541703784011065</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.97866984607624</v>
@@ -28361,7 +28253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.613411146543613</v>
+        <v>1.544003775405259</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.078529915394846</v>
@@ -28450,7 +28342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.62798520365437</v>
+        <v>1.5578767636953</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.422045691262413</v>
@@ -28539,7 +28431,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.604377289261981</v>
+        <v>1.543499383617874</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.046283875474689</v>
@@ -28628,7 +28520,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.61894810627339</v>
+        <v>1.560105447598328</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.066862337619065</v>
@@ -28717,7 +28609,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.619442175394798</v>
+        <v>1.569843275811289</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.835962797184474</v>
@@ -28806,7 +28698,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.611846146903908</v>
+        <v>1.56304994154599</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.098551150593414</v>
@@ -28895,7 +28787,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.616255748045272</v>
+        <v>1.567170629377751</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.049090479300381</v>
@@ -28984,7 +28876,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.611460220471911</v>
+        <v>1.561636037219519</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.949064046462292</v>
@@ -29073,7 +28965,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.599746148472436</v>
+        <v>1.548980775158284</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.958212594446965</v>
@@ -29162,7 +29054,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.592169143368851</v>
+        <v>1.545597768226617</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.023517919190021</v>
@@ -29448,7 +29340,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.259185764296227</v>
+        <v>1.25708688209591</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.845712974686196</v>
@@ -29537,7 +29429,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.313053590999098</v>
+        <v>1.312083631088606</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.134831029964491</v>
@@ -29626,7 +29518,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.319856893487675</v>
+        <v>1.320742064792437</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.275482336221885</v>
@@ -29715,7 +29607,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.344105499427571</v>
+        <v>1.348902947011275</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.225184207719246</v>
@@ -29804,7 +29696,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.375038239888622</v>
+        <v>1.380348268509014</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.293020159282633</v>
@@ -29893,7 +29785,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.424166761021018</v>
+        <v>1.427622901863934</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.318241841846116</v>
@@ -29982,7 +29874,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.457310261886192</v>
+        <v>1.459761017642775</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.30024199925788</v>
@@ -30071,7 +29963,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463911893546302</v>
+        <v>1.469092680422048</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.286603242688085</v>
@@ -30160,7 +30052,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.465397652341399</v>
+        <v>1.471481108177195</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.333233196024733</v>
@@ -30249,7 +30141,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465618861653544</v>
+        <v>1.472950236507513</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.3186260006272</v>
@@ -30338,7 +30230,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.474832131934953</v>
+        <v>1.48300800078847</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.251659610618181</v>
@@ -30427,7 +30319,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.457909398644404</v>
+        <v>1.467533947155724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.341698828972683</v>
@@ -30516,7 +30408,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.460628757852095</v>
+        <v>1.469512400958725</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.295105432271916</v>
@@ -30605,7 +30497,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.508487753299773</v>
+        <v>1.522235582038658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.906461195929975</v>
@@ -30694,7 +30586,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576007819843637</v>
+        <v>1.587597137842385</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.464170391562825</v>
@@ -30783,7 +30675,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.555946761822948</v>
+        <v>1.574669136339858</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.712049996060646</v>
@@ -30872,7 +30764,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57360763113986</v>
+        <v>1.584739379967308</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.772533180295064</v>
@@ -30961,7 +30853,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600041451891679</v>
+        <v>1.603088387271571</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.443901194831874</v>
@@ -31050,7 +30942,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625208016013082</v>
+        <v>1.62136436921913</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.520054110601663</v>
@@ -31139,7 +31031,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595774710880486</v>
+        <v>1.596045992335824</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.592783080879561</v>
@@ -31228,7 +31120,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582826236662376</v>
+        <v>1.584244640941472</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.583783712558179</v>
@@ -31317,7 +31209,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581075702520426</v>
+        <v>1.584321002799986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.644412296400918</v>
@@ -31406,7 +31298,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566369907485984</v>
+        <v>1.574355814961244</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.600637956413816</v>
@@ -31495,7 +31387,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57576343611712</v>
+        <v>1.586767251657816</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.692239301111972</v>
@@ -31584,7 +31476,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.575134920351018</v>
+        <v>1.585853083174386</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.651910674945204</v>
@@ -31673,7 +31565,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57970299769128</v>
+        <v>1.593111837473119</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.712520213792777</v>
@@ -31762,7 +31654,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625333040405701</v>
+        <v>1.636273432376885</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.717340621674265</v>
@@ -31851,7 +31743,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62584670417659</v>
+        <v>1.639175044349921</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.90553889398423</v>
@@ -31940,7 +31832,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.634580764763553</v>
+        <v>1.644064940033893</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.93300547585367</v>
@@ -32029,7 +31921,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.659811399867829</v>
+        <v>1.663425909223783</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.434209446006478</v>
@@ -32118,7 +32010,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.692068802559863</v>
+        <v>1.687520038318701</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.910366664749647</v>
@@ -32207,7 +32099,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.691285999679465</v>
+        <v>1.684235173900712</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.980538858057768</v>
@@ -32296,7 +32188,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.69711408343985</v>
+        <v>1.692787066486051</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.966500032591513</v>
@@ -32385,7 +32277,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.691028113290939</v>
+        <v>1.686119520384554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.124469544081947</v>
@@ -32474,7 +32366,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713024470199007</v>
+        <v>1.700073703703472</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.275509040575475</v>
@@ -32563,7 +32455,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719129383166507</v>
+        <v>1.701980295598401</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.22997163572031</v>
@@ -32652,7 +32544,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.730367868819592</v>
+        <v>1.703102338609199</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.946901641107994</v>
@@ -32741,7 +32633,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.749135718062759</v>
+        <v>1.712721385275851</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.527175998811283</v>
@@ -32830,7 +32722,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.7418661075435</v>
+        <v>1.699139314101387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.393104805429145</v>
@@ -32919,7 +32811,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.748467698589438</v>
+        <v>1.695986939042951</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.551297715962965</v>
@@ -33008,7 +32900,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.723018432126592</v>
+        <v>1.671223594694887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.997528531405305</v>
@@ -33097,7 +32989,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690570831885699</v>
+        <v>1.646721115071515</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.538491907935518</v>
@@ -33186,7 +33078,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.68388255129581</v>
+        <v>1.641226918215785</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.731232516532766</v>
@@ -33275,7 +33167,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.66985907740527</v>
+        <v>1.634917861571358</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.816018164738701</v>
@@ -33364,7 +33256,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660956675773355</v>
+        <v>1.625250505018901</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.854561301066742</v>
@@ -33453,7 +33345,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.660645784361707</v>
+        <v>1.627888055847945</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.843455615337089</v>
@@ -33542,7 +33434,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66132288029976</v>
+        <v>1.630135427562291</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.873716605586492</v>
@@ -33631,7 +33523,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.656614152171378</v>
+        <v>1.627943982807158</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.607632383550325</v>
@@ -33720,7 +33612,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.656255057636742</v>
+        <v>1.629465690727535</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.69551420637792</v>
@@ -33809,7 +33701,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.646962000017928</v>
+        <v>1.629033132946371</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.821314935619887</v>
@@ -33898,7 +33790,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652820762011221</v>
+        <v>1.641316652599145</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.83545968511908</v>
@@ -33987,7 +33879,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656157070580574</v>
+        <v>1.649936156730776</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.714164116960125</v>
@@ -34076,7 +33968,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.651123893991053</v>
+        <v>1.64942166162601</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.787352884129791</v>
@@ -34165,7 +34057,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.648186481579705</v>
+        <v>1.651970978997189</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.886050925593691</v>
@@ -34254,7 +34146,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.637041867749628</v>
+        <v>1.647672926069908</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.580692004694029</v>
@@ -34343,7 +34235,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.636411607251778</v>
+        <v>1.650705519717942</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.941146490893981</v>
@@ -34432,7 +34324,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.651544643701221</v>
+        <v>1.662502753710624</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.498320385110501</v>
@@ -34521,7 +34413,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656530174846925</v>
+        <v>1.670254529684586</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.472547633733289</v>
@@ -34610,7 +34502,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.672646012442918</v>
+        <v>1.682603928043468</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.315028272189462</v>
@@ -34699,7 +34591,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.674697646459565</v>
+        <v>1.68762155513251</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.556719370130277</v>
@@ -34788,7 +34680,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.674270434417714</v>
+        <v>1.687594193341674</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.349939054041335</v>
@@ -35074,7 +34966,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.370293683977123</v>
+        <v>1.341661978187682</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.566986180298986</v>
@@ -35163,7 +35055,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.374708961638635</v>
+        <v>1.343686125180913</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.258751659912239</v>
@@ -35252,7 +35144,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.364366653402179</v>
+        <v>1.337706334861293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.248632589286164</v>
@@ -35341,7 +35233,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.389111267708249</v>
+        <v>1.364034626585888</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.618176586053795</v>
@@ -35430,7 +35322,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387374614158719</v>
+        <v>1.364552321506601</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.326820012074861</v>
@@ -35519,7 +35411,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.410526757528534</v>
+        <v>1.390432582602061</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.530861987933889</v>
@@ -35608,7 +35500,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.400819878586743</v>
+        <v>1.377954710700974</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.307080137227123</v>
@@ -35697,7 +35589,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.399237418670368</v>
+        <v>1.375274960929153</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.542430551888425</v>
@@ -35786,7 +35678,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.395077130627616</v>
+        <v>1.371890180518958</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.431595893916599</v>
@@ -35875,7 +35767,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.391153455209263</v>
+        <v>1.367678505548204</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.239030814037659</v>
@@ -35964,7 +35856,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368618907961943</v>
+        <v>1.350247510277823</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.447821822661812</v>
@@ -36053,7 +35945,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.366051344075763</v>
+        <v>1.348265522110926</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.4086170414182</v>
@@ -36142,7 +36034,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.363475409648372</v>
+        <v>1.345249027752841</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.356284178626239</v>
@@ -36231,7 +36123,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.363379757475216</v>
+        <v>1.337107625725978</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.273409215650766</v>
@@ -36320,7 +36212,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.342470019127535</v>
+        <v>1.322599673380311</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.349397505313301</v>
@@ -36409,7 +36301,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33716434955894</v>
+        <v>1.324018869328031</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.408335278531171</v>
@@ -36498,7 +36390,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.338232985555964</v>
+        <v>1.319357571293823</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.525938488752467</v>
@@ -36587,7 +36479,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.345865292350252</v>
+        <v>1.330453495765139</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.54011435536275</v>
@@ -36676,7 +36568,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.362921189762619</v>
+        <v>1.349017755978752</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.418848089177228</v>
@@ -36765,7 +36657,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.368380089353675</v>
+        <v>1.352566196044604</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.538496198567318</v>
@@ -36854,7 +36746,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.350940065296332</v>
+        <v>1.334918370335828</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.31861222589444</v>
@@ -36943,7 +36835,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.351543927814866</v>
+        <v>1.338810705084845</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.421864639871217</v>
@@ -37032,7 +36924,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.347312313131886</v>
+        <v>1.338873057867426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.311150751548438</v>
@@ -37121,7 +37013,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.337698202860048</v>
+        <v>1.325657149264763</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.439276211723979</v>
@@ -37210,7 +37102,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.35085773628342</v>
+        <v>1.332091975066265</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.555611889871142</v>
@@ -37299,7 +37191,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.350217173156054</v>
+        <v>1.336222374618327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.544153160854241</v>
@@ -37388,7 +37280,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.339654647990607</v>
+        <v>1.325958586273998</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.450752901528218</v>
@@ -37477,7 +37369,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.32908004982068</v>
+        <v>1.310128179651178</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.569910563179525</v>
@@ -37566,7 +37458,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.335771711107246</v>
+        <v>1.320307488266252</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.175838217811853</v>
@@ -37655,7 +37547,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.357430439766852</v>
+        <v>1.341751616745892</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.329075614538516</v>
@@ -37744,7 +37636,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.354763781244554</v>
+        <v>1.338586444402282</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.529676397152256</v>
@@ -37833,7 +37725,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.376131648115545</v>
+        <v>1.357820082519844</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.377292473633468</v>
@@ -37922,7 +37814,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.378353907195385</v>
+        <v>1.353382590980427</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.479909464536934</v>
@@ -38011,7 +37903,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.349616005881908</v>
+        <v>1.32475916591146</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.338647668308938</v>
@@ -38100,7 +37992,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337564804075432</v>
+        <v>1.309699153655116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.336658972161905</v>
@@ -38189,7 +38081,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.342381912271078</v>
+        <v>1.316437517838964</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.378769797731319</v>
@@ -38278,7 +38170,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.353817655198393</v>
+        <v>1.321684778526837</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.305435819802611</v>
@@ -38367,7 +38259,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.33068783562894</v>
+        <v>1.29478787121571</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.422811500785257</v>
@@ -38456,7 +38348,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.34753878142275</v>
+        <v>1.312742896000135</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.148763554024497</v>
@@ -38545,7 +38437,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.349539547705891</v>
+        <v>1.315353652899359</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.485304741363068</v>
@@ -38634,7 +38526,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.346186602840766</v>
+        <v>1.31214040471545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.398961509117655</v>
@@ -38723,7 +38615,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.350557860814865</v>
+        <v>1.312972751258068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.299249639480816</v>
@@ -38812,7 +38704,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.359191184513458</v>
+        <v>1.31924056130005</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.275319932655224</v>
@@ -38901,7 +38793,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.345566596599706</v>
+        <v>1.311079285741442</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.328806629958162</v>
@@ -38990,7 +38882,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.334580910740755</v>
+        <v>1.300619602879136</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.416664246757881</v>
@@ -39079,7 +38971,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.338403697776329</v>
+        <v>1.303888383122997</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.502663411781765</v>
@@ -39168,7 +39060,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.324339059053006</v>
+        <v>1.290383173466942</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.207044595946992</v>
@@ -39257,7 +39149,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.33859048144511</v>
+        <v>1.308303501694908</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.329262740863147</v>
@@ -39346,7 +39238,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.370854375834895</v>
+        <v>1.341156619876354</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.351062305224926</v>
@@ -39435,7 +39327,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.378448691369004</v>
+        <v>1.349230181222513</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.507025323184054</v>
@@ -39524,7 +39416,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.385325826141793</v>
+        <v>1.356884566009702</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.387898020051162</v>
@@ -39613,7 +39505,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.386389833456454</v>
+        <v>1.356210599865482</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.250569447405669</v>
@@ -39702,7 +39594,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.39446570220948</v>
+        <v>1.368180291164188</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.528426252738969</v>
@@ -39791,7 +39683,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.38588973648782</v>
+        <v>1.364825522181101</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.593811116319695</v>
@@ -39880,7 +39772,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.394497788634308</v>
+        <v>1.373968003965433</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.623491295296267</v>
@@ -39969,7 +39861,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.385720379083163</v>
+        <v>1.362970113571424</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.5666526513782</v>
@@ -40058,7 +39950,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.376602167855841</v>
+        <v>1.355290997186306</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.346047762841674</v>
@@ -40147,7 +40039,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.386816213571171</v>
+        <v>1.369376541629685</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.248326278259428</v>
@@ -40236,7 +40128,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.386688086344273</v>
+        <v>1.366927629566903</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.400073585607072</v>
@@ -40325,7 +40217,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.386825167483307</v>
+        <v>1.362573503506722</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.469093894889671</v>
@@ -40414,7 +40306,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.384369768071964</v>
+        <v>1.361979839998281</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.363857032393351</v>
